--- a/medicine/Enfance/Anne_Vantal/Anne_Vantal.xlsx
+++ b/medicine/Enfance/Anne_Vantal/Anne_Vantal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Vantal (née en 1956) est une auteure, journaliste, critique littéraire et écrivaine notamment en  littérature jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Vantal est née à Paris en 1956. Elle obtient un baccalauréat classique latin-grec. Elle suit des études universitaires en lettres modernes, chinois et anglais. Elle enseigne ensuite  l'anglais et le français langue étrangère hors de France pendant deux ans.
 De retour en France, elle exerce d'abord en tant que critique littéraire, au sein du magazine Lire. Elle devient ensuite journaliste au sein de la presse culturelle et scientifique. Parallèlement, dans le domaine de l'édition, elle est lexicographe, notamment pour un dictionnaire de l'Oxford University Press et lectrice de manuscrits.
-En tant qu'auteure, elle écrit d'abord au sein de collectifs, puis sous son nom propre. Elle écrit depuis 2003 à la fois pour un public enfant et adolescent[1],[2],[3],[4].
+En tant qu'auteure, elle écrit d'abord au sein de collectifs, puis sous son nom propre. Elle écrit depuis 2003 à la fois pour un public enfant et adolescent.
 Elle écrit également deux pièces de théâtre, dont une pour le jeune public. Elle a trois grands enfants et vit avec son compagnon entre la Bourgogne et Paris.
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle a obtenu plusieurs prix, notamment :
-Le Prix Sorcières en 2005 pour Chère Théo, Éditions Actes Sud Junior [5]
-pour le prix des Incos[6] :
+Le Prix Sorcières en 2005 pour Chère Théo, Éditions Actes Sud Junior 
+pour le prix des Incos :
 2011/2012 : Peine maximale (23e Prix, 3e / Lycée)
 2007/2008 : Un été outremer (19e Prix, 5e / 4e)</t>
         </is>
